--- a/biology/Botanique/Râpée/Râpée.xlsx
+++ b/biology/Botanique/Râpée/Râpée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A2p%C3%A9e</t>
+          <t>Râpée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La râpée est une galette de pommes de terre revenue à la poêle. Il en existe plusieurs variantes : elle peut être fine ou épaisse, et comprendre ou non des œufs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A2p%C3%A9e</t>
+          <t>Râpée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une spécialité de Saint-Étienne où elle est souvent accompagnée de sarasson. On en retrouve des variantes sous d'autres noms dans toute la région Rhône-Alpes, la crique ardéchoise ou le matefaim en Savoie et en région lyonnaise, en Auvergne (dans les Combrailles), dans le Jura (matafan), et en Alsace ou en Suisse (rösti) ou encore le fameux Potato cake de la banlieue de Liverpool (Everton).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A2p%C3%A9e</t>
+          <t>Râpée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La râpée se fait à base de pommes de terre crues préparées à l'aide d'une râpe à griffe (pas à la mandoline). Elles sont mélangées avec l'oignon haché et les œufs battus, du sel, du poivre et mises à frire dans l'huile ou dans du beurre[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La râpée se fait à base de pommes de terre crues préparées à l'aide d'une râpe à griffe (pas à la mandoline). Elles sont mélangées avec l'oignon haché et les œufs battus, du sel, du poivre et mises à frire dans l'huile ou dans du beurre.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A2p%C3%A9e</t>
+          <t>Râpée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Accord mets et vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La râpée de pomme de terre peut s'accorder avec du vin rouge tel un bugey, un val-de-loire, un pinot-noir d'Alsace, un duché-d'uzès ou un ardèche[2].
-Les amateurs de vin rosé marient ce mets avec un pinot-noir d'Alsace, un val-de-loire et un bugey[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La râpée de pomme de terre peut s'accorder avec du vin rouge tel un bugey, un val-de-loire, un pinot-noir d'Alsace, un duché-d'uzès ou un ardèche.
+Les amateurs de vin rosé marient ce mets avec un pinot-noir d'Alsace, un val-de-loire et un bugey.
 			La râpée.
 			Râpée de pommes de terre.
 </t>
